--- a/Task 1/task 1-1/t1b.xlsx
+++ b/Task 1/task 1-1/t1b.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="20850" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Stream</t>
   </si>
@@ -67,25 +67,43 @@
     <t xml:space="preserve">             |</t>
   </si>
   <si>
+    <t>我们通过皮尔逊相关系数检验了density与M%是线性相关的</t>
+  </si>
+  <si>
     <t>Chapel</t>
   </si>
   <si>
+    <t>density和M%之间的相关系数为0.5452</t>
+  </si>
+  <si>
     <t>Garey Mill</t>
   </si>
   <si>
     <t xml:space="preserve">           M |   0.5452   1.0000 </t>
   </si>
   <si>
+    <t>p = 0.0668 &lt; 0.1, 说明在90%的置信水平上拒绝原假设，</t>
+  </si>
+  <si>
     <t>L. Whippoorwill</t>
   </si>
   <si>
     <t xml:space="preserve">             |   0.0668</t>
   </si>
   <si>
+    <t>幼虫密度与雄性占比有显著的相关性</t>
+  </si>
+  <si>
     <t>Sinking</t>
   </si>
   <si>
+    <t>因此我们可以使用最小二乘法对数据进行线性回归，</t>
+  </si>
+  <si>
     <t>Dry Fork</t>
+  </si>
+  <si>
+    <t>下图对density-%M的线性拟合，可见density = 0.0063M-0.1582</t>
   </si>
   <si>
     <t>Cane</t>
@@ -108,13 +126,19 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -581,137 +605,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,6 +743,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1795,16 +1822,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>501650</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1812,7 +1839,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5588000" y="1689100"/>
+        <a:off x="3003550" y="2108200"/>
         <a:ext cx="4826000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -2076,13 +2103,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="J5" sqref="J5:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="12.0909090909091" customWidth="1"/>
     <col min="8" max="8" width="12.8181818181818"/>
@@ -2103,7 +2130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="17.5" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2117,6 +2144,7 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
@@ -2148,7 +2176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2162,10 +2190,13 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2">
         <v>57.3</v>
@@ -2177,10 +2208,13 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
+      <c r="J6" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
         <v>40.1</v>
@@ -2190,12 +2224,15 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:6">
+    <row r="8" customHeight="1" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2">
         <v>30</v>
@@ -2205,12 +2242,15 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2">
         <v>36.2</v>
@@ -2222,10 +2262,13 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2">
         <v>50.8</v>
@@ -2234,10 +2277,13 @@
         <v>0.003</v>
       </c>
       <c r="E10" s="2"/>
+      <c r="J10" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2">
         <v>50.8</v>
@@ -2249,7 +2295,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B12" s="2">
         <v>57.4</v>
@@ -2261,7 +2307,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2">
         <v>47</v>
